--- a/src/main/java/based/users.xlsx
+++ b/src/main/java/based/users.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t xml:space="preserve">id</t>
   </si>

--- a/src/main/java/based/users.xlsx
+++ b/src/main/java/based/users.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Speakers" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Questions" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Users" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Tables" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -52,28 +53,37 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">674723828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belyaeva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belyaevaMar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мария</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>674723828</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Belyaeva</t>
-  </si>
-  <si>
-    <t>belyaevaMar</t>
-  </si>
-  <si>
-    <t>Мария</t>
+    <t>16:45-17:30 — СДИ Софт (Информационная безопасность)</t>
+  </si>
+  <si>
+    <t>13:00-15:00 — Цифровая Россия (Зал Edison)</t>
   </si>
 </sst>
 </file>
@@ -154,7 +164,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -168,6 +178,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -184,17 +198,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="1" sqref="A2:F2 E39"/>
+      <selection pane="topLeft" activeCell="E39" activeCellId="1" sqref="A2:B3 E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -225,17 +239,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="1" sqref="A2:F2 E32"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="1" sqref="A2:B3 E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -264,17 +278,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:F2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -296,22 +310,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" hidden="false" style="3" width="9.55078125" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="3" width="9.33203125" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" hidden="false" style="3" width="12.33203125" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" hidden="false" style="3" width="6.953125" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="3" width="9.55" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="3" width="9.33" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="3" width="12.33" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="3" width="6.95" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -334,24 +348,72 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/based/users.xlsx
+++ b/src/main/java/based/users.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -65,25 +65,82 @@
     <t xml:space="preserve">belyaevaMar</t>
   </si>
   <si>
-    <t xml:space="preserve">Мария</t>
-  </si>
-  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">233200350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barina_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ирина Барская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174502984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikolay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novikov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">283787068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Андрей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марусин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amarusin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марусин Андрей</t>
+  </si>
+  <si>
     <t xml:space="preserve">table</t>
   </si>
   <si>
+    <t xml:space="preserve">13:00-15:00 — Цифровая Россия (Зал Edison)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:45 – 18:15 — СДИ Софт (Информация безопасность)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:30 - 18:45 — АйТи БАСТИОН</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>674723828</t>
-  </si>
-  <si>
-    <t>16:45-17:30 — СДИ Софт (Информационная безопасность)</t>
-  </si>
-  <si>
-    <t>13:00-15:00 — Цифровая Россия (Зал Edison)</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>5550842004</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Marka</t>
+  </si>
+  <si>
+    <t>Serf</t>
+  </si>
+  <si>
+    <t>Марк</t>
   </si>
 </sst>
 </file>
@@ -164,7 +221,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -181,10 +238,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,14 +251,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="1" sqref="A2:B3 E39"/>
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -239,14 +292,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="1" sqref="A2:B3 E32"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -278,14 +331,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -310,22 +363,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" customWidth="true" hidden="false" style="3" width="9.55" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="3" width="9.33" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="3" width="12.33" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="3" width="6.95" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" hidden="false" style="3" width="9.55078125" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="3" width="9.33203125" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" hidden="false" style="3" width="12.33203125" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" hidden="false" style="3" width="16.48046875" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,7 +402,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -361,11 +414,80 @@
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -380,40 +502,88 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
